--- a/output/output_selenium.xlsx
+++ b/output/output_selenium.xlsx
@@ -42,12 +42,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
+        <fgColor rgb="00FDE9D9"/>
+        <bgColor rgb="00FDE9D9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -55,16 +55,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="00542804"/>
+      </left>
+      <right style="thin">
+        <color rgb="00542804"/>
+      </right>
+      <top style="medium">
+        <color rgb="00542804"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00542804"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00542804"/>
+      </left>
+      <right style="thin">
+        <color rgb="00542804"/>
+      </right>
+      <top style="medium">
+        <color rgb="00542804"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00542804"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00542804"/>
+      </left>
+      <right style="medium">
+        <color rgb="00542804"/>
+      </right>
+      <top style="medium">
+        <color rgb="00542804"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00542804"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00542804"/>
+      </left>
+      <right style="thin">
+        <color rgb="00542804"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00542804"/>
+      </left>
+      <right style="thin">
+        <color rgb="00542804"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00542804"/>
+      </left>
+      <right style="medium">
+        <color rgb="00542804"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00542804"/>
+      </left>
+      <right style="thin">
+        <color rgb="00542804"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00542804"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00542804"/>
+      </left>
+      <right style="thin">
+        <color rgb="00542804"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00542804"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00542804"/>
+      </left>
+      <right style="medium">
+        <color rgb="00542804"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00542804"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -439,13 +545,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="35" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -455,7 +561,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="22" customHeight="1">
+    <row r="3" ht="20" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>求人タイトル</t>
@@ -491,1267 +597,1267 @@
           <t>所在地</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>リンク</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>フロントエンドエンジニア</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Unity/C++によるゲーム開発。</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>職種: AI・データ分析</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>派遣社員</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>給与: 350万～600万円</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社スカイリンク</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 福岡県福岡市</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/1.html</t>
         </is>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>バックエンドエンジニア</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>深層学習モデルの開発と評価。</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>職種: IT・ソフトウェア</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>契約社員</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>給与: 400万～700万円</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社ネクストステージ</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都港区</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/2.html</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>データサイエンティスト</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>テスト設計と自動化スクリプトの作成。</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>職種: クラウド・インフラ</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>派遣社員</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>給与: 700万～1200万円</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社スカイリンク</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都新宿区</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/3.html</t>
         </is>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>インフラエンジニア</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>AWS/GCPを用いたインフラ設計・構築。</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>職種: ゲーム・エンタメ</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>業務委託</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>給与: 700万～1200万円</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社ネクストステージ</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 北海道札幌市</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/4.html</t>
         </is>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>QAエンジニア</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Unity/C++によるゲーム開発。</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>職種: ゲーム・エンタメ</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>正社員</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>給与: 300万～500万円</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社イノベーションズ</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 大阪府大阪市</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/5.html</t>
         </is>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>プロジェクトマネージャー</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>機械学習モデルの構築とデータ分析業務。</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>職種: ゲーム・エンタメ</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>正社員</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>給与: 600万～1000万円</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社スカイリンク</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都港区</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/6.html</t>
         </is>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>UI/UXデザイナー</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>IT戦略の立案と業務改善提案。</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>職種: ゲーム・エンタメ</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>契約社員</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>給与: 300万～500万円</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社イノベーションズ</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 北海道札幌市</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/7.html</t>
         </is>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>モバイルアプリ開発者</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>ユーザー体験を重視したUI設計。</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>職種: IT・ソフトウェア</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>業務委託</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>給与: 400万～700万円</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社ソリューションズ</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都渋谷区</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/8.html</t>
         </is>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>クラウドアーキテクト</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>iOS/Android向けアプリの開発。</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>職種: クラウド・インフラ</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>業務委託</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>給与: 500万～900万円</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社デジタルワークス</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 神奈川県横浜市</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/9.html</t>
         </is>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>セキュリティエンジニア</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>クラウド環境の最適化と運用設計。</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>職種: ゲーム・エンタメ</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>派遣社員</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>給与: 350万～600万円</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社ソリューションズ</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都新宿区</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/10.html</t>
         </is>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>ITコンサルタント</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>開発チームの進捗管理と顧客対応。</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>職種: ゲーム・エンタメ</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>正社員</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>給与: 400万～700万円</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社イノベーションズ</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都新宿区</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/11.html</t>
         </is>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>機械学習エンジニア</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>深層学習モデルの開発と評価。</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>職種: クラウド・インフラ</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>業務委託</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>給与: 600万～1000万円</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社ソリューションズ</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都渋谷区</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/12.html</t>
         </is>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>DevOpsエンジニア</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>開発チームの進捗管理と顧客対応。</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>職種: クラウド・インフラ</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>契約社員</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>給与: 350万～600万円</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社テックウェーブ</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 広島県広島市</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/13.html</t>
         </is>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>テクニカルサポート</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>ユーザー体験を重視したUI設計。</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>職種: ゲーム・エンタメ</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>契約社員</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>給与: 400万～700万円</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社デジタルワークス</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 広島県広島市</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/14.html</t>
         </is>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>ゲームプログラマー</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>クラウド環境の最適化と運用設計。</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>職種: AI・データ分析</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>業務委託</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>給与: 300万～500万円</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社ソリューションズ</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都港区</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/15.html</t>
         </is>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>Webディレクター</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>テスト設計と自動化スクリプトの作成。</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>職種: クラウド・インフラ</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>派遣社員</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>給与: 300万～500万円</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社クラウドリンク</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都港区</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/16.html</t>
         </is>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>IT営業</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>顧客対応と技術的な問題解決。</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>職種: IT・ソフトウェア</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>業務委託</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>給与: 700万～1200万円</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社ソリューションズ</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 愛知県名古屋市</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/17.html</t>
         </is>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>IT事務</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>React/Vue.jsを用いたWebアプリケーションの開発。</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>職種: ゲーム・エンタメ</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>派遣社員</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>給与: 700万～1200万円</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社テックウェーブ</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 神奈川県横浜市</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/18.html</t>
         </is>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>カスタマーサクセス</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>IT戦略の立案と業務改善提案。</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>職種: IT・ソフトウェア</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>業務委託</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>給与: 500万～900万円</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社クラウドリンク</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 神奈川県横浜市</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/19.html</t>
         </is>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>ローカライズ担当</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>iOS/Android向けアプリの開発。</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>職種: クラウド・インフラ</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>派遣社員</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>給与: 500万～900万円</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社デジタルワークス</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都新宿区</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/20.html</t>
         </is>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>ITアナリスト</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>CI/CDパイプラインの構築と運用。</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>職種: ゲーム・エンタメ</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>正社員</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>給与: 700万～1200万円</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社ネクストステージ</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都新宿区</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/21.html</t>
         </is>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>AIエンジニア</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>CI/CDパイプラインの構築と運用。</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>職種: ゲーム・エンタメ</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>契約社員</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>給与: 450万～800万円</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社デジタルワークス</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都渋谷区</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/22.html</t>
         </is>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>ネットワークエンジニア</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>IT戦略の立案と業務改善提案。</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>職種: IT・ソフトウェア</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>派遣社員</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>給与: 500万～900万円</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社イノベーションズ</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 福岡県福岡市</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/23.html</t>
         </is>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>データエンジニア</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>ユーザー体験を重視したUI設計。</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>職種: AI・データ分析</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>正社員</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>給与: 600万～1000万円</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社データラボ</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都港区</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/24.html</t>
         </is>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>ソリューションアーキテクト</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>CI/CDパイプラインの構築と運用。</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>職種: クラウド・インフラ</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>業務委託</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>給与: 600万～1000万円</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社デジタルワークス</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 宮城県仙台市</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/25.html</t>
         </is>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>プロダクトマネージャー</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>社内システムのセキュリティ強化。</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>職種: IT・ソフトウェア</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>契約社員</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>給与: 300万～500万円</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社データラボ</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 大阪府大阪市</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/26.html</t>
         </is>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>テストエンジニア</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>Python/DjangoによるAPI開発と運用。</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>職種: IT・ソフトウェア</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>正社員</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>給与: 400万～700万円</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社クラウドリンク</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 神奈川県横浜市</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/27.html</t>
         </is>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>IT講師</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Unity/C++によるゲーム開発。</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>職種: AI・データ分析</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>契約社員</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>給与: 700万～1200万円</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社デジタルワークス</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 愛知県名古屋市</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/28.html</t>
         </is>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>セールスエンジニア</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>Unity/C++によるゲーム開発。</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>職種: クラウド・インフラ</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>契約社員</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>給与: 700万～1200万円</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>企業名: 株式会社テックウェーブ</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t>勤務地所在地: 北海道札幌市</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/29.html</t>
         </is>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="6" t="inlineStr">
         <is>
           <t>RPAエンジニア</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="6" t="inlineStr">
         <is>
           <t>開発チームの進捗管理と顧客対応。</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>職種: ゲーム・エンタメ</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>正社員</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="6" t="inlineStr">
         <is>
           <t>給与: 350万～600万円</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="6" t="inlineStr">
         <is>
           <t>企業名: 株式会社データラボ</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" s="6" t="inlineStr">
         <is>
           <t>勤務地所在地: 東京都渋谷区</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" s="7" t="inlineStr">
         <is>
           <t>https://nyaataco.github.io/jobs/30.html</t>
         </is>
